--- a/CurrentWork/MainProgramm/pop_numbers.xlsx
+++ b/CurrentWork/MainProgramm/pop_numbers.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artemieva.luda\Dropbox\Allee effect fish harvesting problem\All data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ScienceWork\Data Source\All data 2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{C62635F6-BE0C-4B25-82FD-9DFB11D64398}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Лист2!$A$1:$L$55</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,15 +27,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{0BA682D2-1D98-4940-B912-BDE242986243}" keepAlive="1" name="Запрос — pop_numbers" description="Соединение с запросом &quot;pop_numbers&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Запрос — pop_numbers" description="Соединение с запросом &quot;pop_numbers&quot; в книге." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=pop_numbers;Extended Properties=&quot;&quot;" command="SELECT * FROM [pop_numbers]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -72,11 +72,14 @@
   <si>
     <t>age11</t>
   </si>
+  <si>
+    <t>age12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +117,10 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -162,45 +168,50 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{ED27ED23-0D2D-4A0A-A234-D8ED6EDF9224}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="14">
-    <queryTableFields count="12">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="16" unboundColumnsRight="1">
+    <queryTableFields count="13">
       <queryTableField id="2" name="age1" tableColumnId="2"/>
       <queryTableField id="3" name="age2" tableColumnId="3"/>
       <queryTableField id="4" name="age3" tableColumnId="4"/>
       <queryTableField id="5" name="age4" tableColumnId="5"/>
       <queryTableField id="6" name="age5" tableColumnId="6"/>
       <queryTableField id="7" name="age6" tableColumnId="7"/>
-      <queryTableField id="8" name="age7" tableColumnId="8"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="1"/>
       <queryTableField id="9" name="age8" tableColumnId="9"/>
       <queryTableField id="10" name="age9" tableColumnId="10"/>
       <queryTableField id="11" name="age10" tableColumnId="11"/>
       <queryTableField id="12" name="age11" tableColumnId="12"/>
       <queryTableField id="13" name="Column13" tableColumnId="13"/>
+      <queryTableField id="15" dataBound="0" tableColumnId="14"/>
     </queryTableFields>
-    <queryTableDeletedFields count="1">
+    <queryTableDeletedFields count="2">
       <deletedField name="year"/>
+      <deletedField name="age7"/>
     </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D661726-A286-450C-8CC2-DFFDBEE18EDA}" name="pop_numbers" displayName="pop_numbers" ref="A1:L55" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L55" xr:uid="{837C2C85-827A-44EC-B16C-6AC50F12F010}"/>
-  <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{4C092BE0-4194-4862-830E-E71FAB080D66}" uniqueName="2" name="year" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{84F1CA26-6A3D-4A8C-A19E-F257B8EAC0A1}" uniqueName="3" name="age1" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2048A59F-FF90-42CA-B5CB-0BD70107D079}" uniqueName="4" name="age2" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{1438E566-F8A8-47AB-A300-C20F544774E9}" uniqueName="5" name="age3" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{6468BB0D-59CE-4416-AE55-48D0F1CDADD8}" uniqueName="6" name="age4" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{CE99D32A-28BA-4E36-9505-175F83B7FA48}" uniqueName="7" name="age5" queryTableFieldId="7" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{F27791BB-8170-4940-ABE4-CD56D95FE3E1}" uniqueName="8" name="age6" queryTableFieldId="8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{8C88C8A2-A2D7-4E49-9D96-D9F9C9491679}" uniqueName="9" name="age7" queryTableFieldId="9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{80070878-42E6-4EE1-915B-CA08AAC5FD17}" uniqueName="10" name="age8" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{D099FC78-94F8-456B-953E-0E7D4B8977C5}" uniqueName="11" name="age9" queryTableFieldId="11" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{23D17CF3-4A47-4D1E-B99F-0194A32C1550}" uniqueName="12" name="age10" queryTableFieldId="12" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{DFC78413-EC8E-4AA4-88E3-1A68C9258B1E}" uniqueName="13" name="age11" queryTableFieldId="13" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="pop_numbers" displayName="pop_numbers" ref="A1:M55" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:M55"/>
+  <tableColumns count="13">
+    <tableColumn id="2" uniqueName="2" name="year" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="age1" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="4" uniqueName="4" name="age2" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" uniqueName="5" name="age3" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" uniqueName="6" name="age4" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="7" uniqueName="7" name="age5" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="1" uniqueName="1" name="age6" queryTableFieldId="14" dataDxfId="0">
+      <calculatedColumnFormula>H2+I2+J2+K2+L2+M2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="9" name="age7" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="10" uniqueName="10" name="age8" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="11" uniqueName="11" name="age9" queryTableFieldId="11" dataDxfId="4"/>
+    <tableColumn id="12" uniqueName="12" name="age10" queryTableFieldId="12" dataDxfId="3"/>
+    <tableColumn id="13" uniqueName="13" name="age11" queryTableFieldId="13" dataDxfId="2"/>
+    <tableColumn id="14" uniqueName="14" name="age12" queryTableFieldId="15" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -502,22 +513,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F2E575-8525-45A1-B54A-2843621FDB6B}">
-  <dimension ref="A1:L55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,8 +568,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1963</v>
       </c>
@@ -575,7 +592,8 @@
         <v>8251000</v>
       </c>
       <c r="G2" s="1">
-        <v>871500</v>
+        <f t="shared" ref="G2:G33" si="0">H2+I2+J2+K2+L2+M2</f>
+        <v>5229000</v>
       </c>
       <c r="H2" s="1">
         <v>871500</v>
@@ -592,8 +610,11 @@
       <c r="L2" s="1">
         <v>871500</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1">
+        <v>871500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1964</v>
       </c>
@@ -613,7 +634,8 @@
         <v>5261000</v>
       </c>
       <c r="G3" s="1">
-        <v>1176500</v>
+        <f t="shared" si="0"/>
+        <v>7059000</v>
       </c>
       <c r="H3" s="1">
         <v>1176500</v>
@@ -630,8 +652,11 @@
       <c r="L3" s="1">
         <v>1176500</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>1176500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1965</v>
       </c>
@@ -651,7 +676,8 @@
         <v>6212000</v>
       </c>
       <c r="G4" s="1">
-        <v>933666.66666666698</v>
+        <f t="shared" si="0"/>
+        <v>5602000.0000000019</v>
       </c>
       <c r="H4" s="1">
         <v>933666.66666666698</v>
@@ -668,8 +694,11 @@
       <c r="L4" s="1">
         <v>933666.66666666698</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>933666.66666666698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1966</v>
       </c>
@@ -689,7 +718,8 @@
         <v>9513000</v>
       </c>
       <c r="G5" s="1">
-        <v>1030666.66666667</v>
+        <f t="shared" si="0"/>
+        <v>6184000.0000000196</v>
       </c>
       <c r="H5" s="1">
         <v>1030666.66666667</v>
@@ -706,8 +736,11 @@
       <c r="L5" s="1">
         <v>1030666.66666667</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <v>1030666.66666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1967</v>
       </c>
@@ -727,7 +760,8 @@
         <v>8039000</v>
       </c>
       <c r="G6" s="1">
-        <v>1367000</v>
+        <f t="shared" si="0"/>
+        <v>8202000</v>
       </c>
       <c r="H6" s="1">
         <v>1367000</v>
@@ -744,8 +778,11 @@
       <c r="L6" s="1">
         <v>1367000</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <v>1367000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1968</v>
       </c>
@@ -765,7 +802,8 @@
         <v>14327000</v>
       </c>
       <c r="G7" s="1">
-        <v>1187166.66666667</v>
+        <f t="shared" si="0"/>
+        <v>7123000.0000000196</v>
       </c>
       <c r="H7" s="1">
         <v>1187166.66666667</v>
@@ -782,8 +820,11 @@
       <c r="L7" s="1">
         <v>1187166.66666667</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <v>1187166.66666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1969</v>
       </c>
@@ -803,7 +844,8 @@
         <v>11439000</v>
       </c>
       <c r="G8" s="1">
-        <v>1674666.66666667</v>
+        <f t="shared" si="0"/>
+        <v>10048000.00000002</v>
       </c>
       <c r="H8" s="1">
         <v>1674666.66666667</v>
@@ -820,8 +862,11 @@
       <c r="L8" s="1">
         <v>1674666.66666667</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <v>1674666.66666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1970</v>
       </c>
@@ -841,7 +886,8 @@
         <v>15432000</v>
       </c>
       <c r="G9" s="1">
-        <v>1422666.66666667</v>
+        <f t="shared" si="0"/>
+        <v>8536000.0000000205</v>
       </c>
       <c r="H9" s="1">
         <v>1422666.66666667</v>
@@ -858,8 +904,11 @@
       <c r="L9" s="1">
         <v>1422666.66666667</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <v>1422666.66666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1971</v>
       </c>
@@ -879,7 +928,8 @@
         <v>16036000</v>
       </c>
       <c r="G10" s="1">
-        <v>1786833.33333333</v>
+        <f t="shared" si="0"/>
+        <v>10720999.99999998</v>
       </c>
       <c r="H10" s="1">
         <v>1786833.33333333</v>
@@ -896,8 +946,11 @@
       <c r="L10" s="1">
         <v>1786833.33333333</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>1786833.33333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1972</v>
       </c>
@@ -917,7 +970,8 @@
         <v>5981000</v>
       </c>
       <c r="G11" s="1">
-        <v>2137666.6666666698</v>
+        <f t="shared" si="0"/>
+        <v>12826000.000000019</v>
       </c>
       <c r="H11" s="1">
         <v>2137666.6666666698</v>
@@ -934,8 +988,11 @@
       <c r="L11" s="1">
         <v>2137666.6666666698</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <v>2137666.6666666698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1973</v>
       </c>
@@ -955,7 +1012,8 @@
         <v>4964000</v>
       </c>
       <c r="G12" s="1">
-        <v>1202666.66666667</v>
+        <f t="shared" si="0"/>
+        <v>7216000.0000000196</v>
       </c>
       <c r="H12" s="1">
         <v>1202666.66666667</v>
@@ -972,8 +1030,11 @@
       <c r="L12" s="1">
         <v>1202666.66666667</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>1202666.66666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1974</v>
       </c>
@@ -993,7 +1054,8 @@
         <v>11073000</v>
       </c>
       <c r="G13" s="1">
-        <v>939000</v>
+        <f t="shared" si="0"/>
+        <v>5634000</v>
       </c>
       <c r="H13" s="1">
         <v>939000</v>
@@ -1010,8 +1072,11 @@
       <c r="L13" s="1">
         <v>939000</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>939000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1975</v>
       </c>
@@ -1031,7 +1096,8 @@
         <v>16455000</v>
       </c>
       <c r="G14" s="1">
-        <v>1205333.33333333</v>
+        <f t="shared" si="0"/>
+        <v>7231999.9999999804</v>
       </c>
       <c r="H14" s="1">
         <v>1205333.33333333</v>
@@ -1048,8 +1114,11 @@
       <c r="L14" s="1">
         <v>1205333.33333333</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <v>1205333.33333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1976</v>
       </c>
@@ -1069,7 +1138,8 @@
         <v>3812000</v>
       </c>
       <c r="G15" s="1">
-        <v>1657500</v>
+        <f t="shared" si="0"/>
+        <v>9945000</v>
       </c>
       <c r="H15" s="1">
         <v>1657500</v>
@@ -1086,8 +1156,11 @@
       <c r="L15" s="1">
         <v>1657500</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <v>1657500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1977</v>
       </c>
@@ -1107,7 +1180,8 @@
         <v>5137000</v>
       </c>
       <c r="G16" s="1">
-        <v>1031000</v>
+        <f t="shared" si="0"/>
+        <v>6186000</v>
       </c>
       <c r="H16" s="1">
         <v>1031000</v>
@@ -1124,8 +1198,11 @@
       <c r="L16" s="1">
         <v>1031000</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <v>1031000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1978</v>
       </c>
@@ -1145,7 +1222,8 @@
         <v>5598000</v>
       </c>
       <c r="G17" s="1">
-        <v>775333.33333333302</v>
+        <f t="shared" si="0"/>
+        <v>4651999.9999999981</v>
       </c>
       <c r="H17" s="1">
         <v>775333.33333333302</v>
@@ -1162,8 +1240,11 @@
       <c r="L17" s="1">
         <v>775333.33333333302</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <v>775333.33333333302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1979</v>
       </c>
@@ -1183,7 +1264,8 @@
         <v>7374000</v>
       </c>
       <c r="G18" s="1">
-        <v>595333.33333333302</v>
+        <f t="shared" si="0"/>
+        <v>3571999.9999999981</v>
       </c>
       <c r="H18" s="1">
         <v>595333.33333333302</v>
@@ -1200,8 +1282,11 @@
       <c r="L18" s="1">
         <v>595333.33333333302</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>595333.33333333302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1980</v>
       </c>
@@ -1221,7 +1306,8 @@
         <v>3982000</v>
       </c>
       <c r="G19" s="1">
-        <v>786833.33333333302</v>
+        <f t="shared" si="0"/>
+        <v>4720999.9999999981</v>
       </c>
       <c r="H19" s="1">
         <v>786833.33333333302</v>
@@ -1238,8 +1324,11 @@
       <c r="L19" s="1">
         <v>786833.33333333302</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <v>786833.33333333302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1981</v>
       </c>
@@ -1259,7 +1348,8 @@
         <v>8882000</v>
       </c>
       <c r="G20" s="1">
-        <v>610000</v>
+        <f t="shared" si="0"/>
+        <v>3660000</v>
       </c>
       <c r="H20" s="1">
         <v>610000</v>
@@ -1276,8 +1366,11 @@
       <c r="L20" s="1">
         <v>610000</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <v>610000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1982</v>
       </c>
@@ -1297,7 +1390,8 @@
         <v>6599000</v>
       </c>
       <c r="G21" s="1">
-        <v>938666.66666666698</v>
+        <f t="shared" si="0"/>
+        <v>5632000.0000000019</v>
       </c>
       <c r="H21" s="1">
         <v>938666.66666666698</v>
@@ -1314,8 +1408,11 @@
       <c r="L21" s="1">
         <v>938666.66666666698</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>938666.66666666698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1983</v>
       </c>
@@ -1335,7 +1432,8 @@
         <v>5434000</v>
       </c>
       <c r="G22" s="1">
-        <v>755500</v>
+        <f t="shared" si="0"/>
+        <v>4533000</v>
       </c>
       <c r="H22" s="1">
         <v>755500</v>
@@ -1352,8 +1450,11 @@
       <c r="L22" s="1">
         <v>755500</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>755500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1984</v>
       </c>
@@ -1373,7 +1474,8 @@
         <v>6790000</v>
       </c>
       <c r="G23" s="1">
-        <v>647833.33333333302</v>
+        <f t="shared" si="0"/>
+        <v>3886999.9999999981</v>
       </c>
       <c r="H23" s="1">
         <v>647833.33333333302</v>
@@ -1390,8 +1492,11 @@
       <c r="L23" s="1">
         <v>647833.33333333302</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>647833.33333333302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1985</v>
       </c>
@@ -1411,7 +1516,8 @@
         <v>2806000</v>
       </c>
       <c r="G24" s="1">
-        <v>710833.33333333302</v>
+        <f t="shared" si="0"/>
+        <v>4264999.9999999981</v>
       </c>
       <c r="H24" s="1">
         <v>710833.33333333302</v>
@@ -1428,8 +1534,11 @@
       <c r="L24" s="1">
         <v>710833.33333333302</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <v>710833.33333333302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1986</v>
       </c>
@@ -1449,7 +1558,8 @@
         <v>5661000</v>
       </c>
       <c r="G25" s="1">
-        <v>506166.66666666698</v>
+        <f t="shared" si="0"/>
+        <v>3037000.0000000019</v>
       </c>
       <c r="H25" s="1">
         <v>506166.66666666698</v>
@@ -1466,8 +1576,11 @@
       <c r="L25" s="1">
         <v>506166.66666666698</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>506166.66666666698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1987</v>
       </c>
@@ -1487,7 +1600,8 @@
         <v>3034000</v>
       </c>
       <c r="G26" s="1">
-        <v>568166.66666666698</v>
+        <f t="shared" si="0"/>
+        <v>3409000.0000000019</v>
       </c>
       <c r="H26" s="1">
         <v>568166.66666666698</v>
@@ -1504,8 +1618,11 @@
       <c r="L26" s="1">
         <v>568166.66666666698</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <v>568166.66666666698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1988</v>
       </c>
@@ -1525,7 +1642,8 @@
         <v>4986000</v>
       </c>
       <c r="G27" s="1">
-        <v>401666.66666666698</v>
+        <f t="shared" si="0"/>
+        <v>2410000.0000000019</v>
       </c>
       <c r="H27" s="1">
         <v>401666.66666666698</v>
@@ -1542,8 +1660,11 @@
       <c r="L27" s="1">
         <v>401666.66666666698</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="1">
+        <v>401666.66666666698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1989</v>
       </c>
@@ -1563,7 +1684,8 @@
         <v>1832000</v>
       </c>
       <c r="G28" s="1">
-        <v>498833.33333333302</v>
+        <f t="shared" si="0"/>
+        <v>2992999.9999999981</v>
       </c>
       <c r="H28" s="1">
         <v>498833.33333333302</v>
@@ -1580,8 +1702,11 @@
       <c r="L28" s="1">
         <v>498833.33333333302</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="1">
+        <v>498833.33333333302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1990</v>
       </c>
@@ -1601,7 +1726,8 @@
         <v>5228000</v>
       </c>
       <c r="G29" s="1">
-        <v>288166.66666666698</v>
+        <f t="shared" si="0"/>
+        <v>1729000.0000000019</v>
       </c>
       <c r="H29" s="1">
         <v>288166.66666666698</v>
@@ -1618,8 +1744,11 @@
       <c r="L29" s="1">
         <v>288166.66666666698</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="1">
+        <v>288166.66666666698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1991</v>
       </c>
@@ -1639,7 +1768,8 @@
         <v>2741000</v>
       </c>
       <c r="G30" s="1">
-        <v>507833.33333333302</v>
+        <f t="shared" si="0"/>
+        <v>3046999.9999999981</v>
       </c>
       <c r="H30" s="1">
         <v>507833.33333333302</v>
@@ -1656,8 +1786,11 @@
       <c r="L30" s="1">
         <v>507833.33333333302</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="1">
+        <v>507833.33333333302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1992</v>
       </c>
@@ -1677,7 +1810,8 @@
         <v>2073000</v>
       </c>
       <c r="G31" s="1">
-        <v>356666.66666666698</v>
+        <f t="shared" si="0"/>
+        <v>2140000.0000000019</v>
       </c>
       <c r="H31" s="1">
         <v>356666.66666666698</v>
@@ -1694,8 +1828,11 @@
       <c r="L31" s="1">
         <v>356666.66666666698</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="1">
+        <v>356666.66666666698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1993</v>
       </c>
@@ -1715,7 +1852,8 @@
         <v>2918000</v>
       </c>
       <c r="G32" s="1">
-        <v>276833.33333333302</v>
+        <f t="shared" si="0"/>
+        <v>1660999.9999999981</v>
       </c>
       <c r="H32" s="1">
         <v>276833.33333333302</v>
@@ -1732,8 +1870,11 @@
       <c r="L32" s="1">
         <v>276833.33333333302</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="1">
+        <v>276833.33333333302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1994</v>
       </c>
@@ -1753,7 +1894,8 @@
         <v>1778000</v>
       </c>
       <c r="G33" s="1">
-        <v>299500</v>
+        <f t="shared" si="0"/>
+        <v>1797000</v>
       </c>
       <c r="H33" s="1">
         <v>299500</v>
@@ -1770,8 +1912,11 @@
       <c r="L33" s="1">
         <v>299500</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="1">
+        <v>299500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1995</v>
       </c>
@@ -1791,7 +1936,8 @@
         <v>1823000</v>
       </c>
       <c r="G34" s="1">
-        <v>229833.33333333299</v>
+        <f t="shared" ref="G34:G65" si="1">H34+I34+J34+K34+L34+M34</f>
+        <v>1378999.9999999979</v>
       </c>
       <c r="H34" s="1">
         <v>229833.33333333299</v>
@@ -1808,8 +1954,11 @@
       <c r="L34" s="1">
         <v>229833.33333333299</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="1">
+        <v>229833.33333333299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1996</v>
       </c>
@@ -1829,7 +1978,8 @@
         <v>3344000</v>
       </c>
       <c r="G35" s="1">
-        <v>241500</v>
+        <f t="shared" si="1"/>
+        <v>1449000</v>
       </c>
       <c r="H35" s="1">
         <v>241500</v>
@@ -1846,8 +1996,11 @@
       <c r="L35" s="1">
         <v>241500</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1997</v>
       </c>
@@ -1867,7 +2020,8 @@
         <v>1868000</v>
       </c>
       <c r="G36" s="1">
-        <v>287166.66666666698</v>
+        <f t="shared" si="1"/>
+        <v>1723000.0000000019</v>
       </c>
       <c r="H36" s="1">
         <v>287166.66666666698</v>
@@ -1884,8 +2038,11 @@
       <c r="L36" s="1">
         <v>287166.66666666698</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="1">
+        <v>287166.66666666698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1998</v>
       </c>
@@ -1905,7 +2062,8 @@
         <v>3011000</v>
       </c>
       <c r="G37" s="1">
-        <v>213333.33333333299</v>
+        <f t="shared" si="1"/>
+        <v>1279999.9999999979</v>
       </c>
       <c r="H37" s="1">
         <v>213333.33333333299</v>
@@ -1922,8 +2080,11 @@
       <c r="L37" s="1">
         <v>213333.33333333299</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="1">
+        <v>213333.33333333299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1999</v>
       </c>
@@ -1943,7 +2104,8 @@
         <v>2072000</v>
       </c>
       <c r="G38" s="1">
-        <v>270500</v>
+        <f t="shared" si="1"/>
+        <v>1623000</v>
       </c>
       <c r="H38" s="1">
         <v>270500</v>
@@ -1960,8 +2122,11 @@
       <c r="L38" s="1">
         <v>270500</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="1">
+        <v>270500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2000</v>
       </c>
@@ -1981,7 +2146,8 @@
         <v>1578000</v>
       </c>
       <c r="G39" s="1">
-        <v>191666.66666666701</v>
+        <f t="shared" si="1"/>
+        <v>1150000.0000000021</v>
       </c>
       <c r="H39" s="1">
         <v>191666.66666666701</v>
@@ -1998,8 +2164,11 @@
       <c r="L39" s="1">
         <v>191666.66666666701</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="1">
+        <v>191666.66666666701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2001</v>
       </c>
@@ -2019,7 +2188,8 @@
         <v>2420000</v>
       </c>
       <c r="G40" s="1">
-        <v>135000</v>
+        <f t="shared" si="1"/>
+        <v>810000</v>
       </c>
       <c r="H40" s="1">
         <v>135000</v>
@@ -2036,8 +2206,11 @@
       <c r="L40" s="1">
         <v>135000</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="1">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2002</v>
       </c>
@@ -2057,7 +2230,8 @@
         <v>626000</v>
       </c>
       <c r="G41" s="1">
-        <v>172166.66666666701</v>
+        <f t="shared" si="1"/>
+        <v>1033000.000000002</v>
       </c>
       <c r="H41" s="1">
         <v>172166.66666666701</v>
@@ -2074,8 +2248,11 @@
       <c r="L41" s="1">
         <v>172166.66666666701</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="1">
+        <v>172166.66666666701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2003</v>
       </c>
@@ -2095,7 +2272,8 @@
         <v>1153000</v>
       </c>
       <c r="G42" s="1">
-        <v>98166.666666666701</v>
+        <f t="shared" si="1"/>
+        <v>589000.00000000023</v>
       </c>
       <c r="H42" s="1">
         <v>98166.666666666701</v>
@@ -2112,8 +2290,11 @@
       <c r="L42" s="1">
         <v>98166.666666666701</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="1">
+        <v>98166.666666666701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2004</v>
       </c>
@@ -2133,7 +2314,8 @@
         <v>2172000</v>
       </c>
       <c r="G43" s="1">
-        <v>108333.33333333299</v>
+        <f t="shared" si="1"/>
+        <v>649999.99999999802</v>
       </c>
       <c r="H43" s="1">
         <v>108333.33333333299</v>
@@ -2150,8 +2332,11 @@
       <c r="L43" s="1">
         <v>108333.33333333299</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="1">
+        <v>108333.33333333299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2005</v>
       </c>
@@ -2171,7 +2356,8 @@
         <v>1066000</v>
       </c>
       <c r="G44" s="1">
-        <v>195166.66666666701</v>
+        <f t="shared" si="1"/>
+        <v>1171000.0000000021</v>
       </c>
       <c r="H44" s="1">
         <v>195166.66666666701</v>
@@ -2188,8 +2374,11 @@
       <c r="L44" s="1">
         <v>195166.66666666701</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="1">
+        <v>195166.66666666701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2006</v>
       </c>
@@ -2209,7 +2398,8 @@
         <v>1170000</v>
       </c>
       <c r="G45" s="1">
-        <v>171166.66666666701</v>
+        <f t="shared" si="1"/>
+        <v>1027000.000000002</v>
       </c>
       <c r="H45" s="1">
         <v>171166.66666666701</v>
@@ -2226,8 +2416,11 @@
       <c r="L45" s="1">
         <v>171166.66666666701</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="1">
+        <v>171166.66666666701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2007</v>
       </c>
@@ -2247,7 +2440,8 @@
         <v>1043000</v>
       </c>
       <c r="G46" s="1">
-        <v>153000</v>
+        <f t="shared" si="1"/>
+        <v>918000</v>
       </c>
       <c r="H46" s="1">
         <v>153000</v>
@@ -2264,8 +2458,11 @@
       <c r="L46" s="1">
         <v>153000</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="1">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2008</v>
       </c>
@@ -2285,7 +2482,8 @@
         <v>1780000</v>
       </c>
       <c r="G47" s="1">
-        <v>187166.66666666701</v>
+        <f t="shared" si="1"/>
+        <v>1123000.0000000021</v>
       </c>
       <c r="H47" s="1">
         <v>187166.66666666701</v>
@@ -2302,8 +2500,11 @@
       <c r="L47" s="1">
         <v>187166.66666666701</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="1">
+        <v>187166.66666666701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2009</v>
       </c>
@@ -2323,7 +2524,8 @@
         <v>1539000</v>
       </c>
       <c r="G48" s="1">
-        <v>221000</v>
+        <f t="shared" si="1"/>
+        <v>1326000</v>
       </c>
       <c r="H48" s="1">
         <v>221000</v>
@@ -2340,8 +2542,11 @@
       <c r="L48" s="1">
         <v>221000</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="1">
+        <v>221000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2010</v>
       </c>
@@ -2361,7 +2566,8 @@
         <v>3591000</v>
       </c>
       <c r="G49" s="1">
-        <v>216000</v>
+        <f t="shared" si="1"/>
+        <v>1296000</v>
       </c>
       <c r="H49" s="1">
         <v>216000</v>
@@ -2378,8 +2584,11 @@
       <c r="L49" s="1">
         <v>216000</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="1">
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2011</v>
       </c>
@@ -2399,7 +2608,8 @@
         <v>2007000</v>
       </c>
       <c r="G50" s="1">
-        <v>436500</v>
+        <f t="shared" si="1"/>
+        <v>2619000</v>
       </c>
       <c r="H50" s="1">
         <v>436500</v>
@@ -2416,8 +2626,11 @@
       <c r="L50" s="1">
         <v>436500</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="1">
+        <v>436500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2012</v>
       </c>
@@ -2437,7 +2650,8 @@
         <v>2297000</v>
       </c>
       <c r="G51" s="1">
-        <v>396166.66666666698</v>
+        <f t="shared" si="1"/>
+        <v>2377000.0000000019</v>
       </c>
       <c r="H51" s="1">
         <v>396166.66666666698</v>
@@ -2454,8 +2668,11 @@
       <c r="L51" s="1">
         <v>396166.66666666698</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="1">
+        <v>396166.66666666698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2013</v>
       </c>
@@ -2475,7 +2692,8 @@
         <v>3509000</v>
       </c>
       <c r="G52" s="1">
-        <v>393666.66666666698</v>
+        <f t="shared" si="1"/>
+        <v>2362000.0000000019</v>
       </c>
       <c r="H52" s="1">
         <v>393666.66666666698</v>
@@ -2492,8 +2710,11 @@
       <c r="L52" s="1">
         <v>393666.66666666698</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="1">
+        <v>393666.66666666698</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2014</v>
       </c>
@@ -2513,7 +2734,8 @@
         <v>5136000</v>
       </c>
       <c r="G53" s="1">
-        <v>502000</v>
+        <f t="shared" si="1"/>
+        <v>3012000</v>
       </c>
       <c r="H53" s="1">
         <v>502000</v>
@@ -2530,8 +2752,11 @@
       <c r="L53" s="1">
         <v>502000</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="1">
+        <v>502000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -2551,7 +2776,8 @@
         <v>3032000</v>
       </c>
       <c r="G54" s="1">
-        <v>879000</v>
+        <f t="shared" si="1"/>
+        <v>5274000</v>
       </c>
       <c r="H54" s="1">
         <v>879000</v>
@@ -2568,8 +2794,11 @@
       <c r="L54" s="1">
         <v>879000</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="1">
+        <v>879000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2016</v>
       </c>
@@ -2589,7 +2818,8 @@
         <v>4168000</v>
       </c>
       <c r="G55" s="1">
-        <v>889833.33333333302</v>
+        <f t="shared" si="1"/>
+        <v>5338999.9999999981</v>
       </c>
       <c r="H55" s="1">
         <v>889833.33333333302</v>
@@ -2604,6 +2834,9 @@
         <v>889833.33333333302</v>
       </c>
       <c r="L55" s="1">
+        <v>889833.33333333302</v>
+      </c>
+      <c r="M55" s="1">
         <v>889833.33333333302</v>
       </c>
     </row>
